--- a/biology/Zoologie/Capillostrongyloides/Capillostrongyloides.xlsx
+++ b/biology/Zoologie/Capillostrongyloides/Capillostrongyloides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Capillostrongyloides est un genre de nématodes de la famille des Capillariidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le stichosome est constitué d'une unique rangée de stichocytes. Chez le mâle, l'extrémité postérieure est dépourvue de palettes caudales contrairement à d'autres Capillariidae mais est munie d'une bourse membraneuse très développée et soutenue par deux lobes latéraux, courts et larges et portant une papille à leur base. Le spicule, souvent peu sclérifié, n'a pas de rainures transversales rugueuses et sa gaine n'est pas épineuse. L'appendice vulvaire de la femelle est absent[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le stichosome est constitué d'une unique rangée de stichocytes. Chez le mâle, l'extrémité postérieure est dépourvue de palettes caudales contrairement à d'autres Capillariidae mais est munie d'une bourse membraneuse très développée et soutenue par deux lobes latéraux, courts et larges et portant une papille à leur base. Le spicule, souvent peu sclérifié, n'a pas de rainures transversales rugueuses et sa gaine n'est pas épineuse. L'appendice vulvaire de la femelle est absent.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Hôtes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre parasitent le tube digestif de poissons[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre parasitent le tube digestif de poissons.
 </t>
         </is>
       </c>
@@ -573,19 +589,21 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le genre est décrit en 1935 par les parasitologistes João Ferreira Teixeira de Freitas et Herman Lent[3].
-Dans sa monographie de 2001 sur les nématodes de la super-famille des Trichinelloidea parasitant les animaux à sang froid, le parasitologiste tchèque František Moravec reconnaît les espèces suivantes[4] :
-Capillostrongyloides ancistri Moravec, Gelnar &amp; Řehulska, 1987[5]
-Capillostrongyloides fritschi (Travassos, 1914)[6]
-Capillostrongyloides norvegica Moravec &amp; Karlsbakk, 2000[7]
-Capillostrongyloides physiculi (Johnston &amp; Mawson, 1945)[8]
-Capillostrongyloides sentinosa (Travassos, 1927)[9]
-Capillostrongyloides tandani (Johnston &amp; Mawson, 1940)[10]
-Capillostrongyloides tasmanica (Johnston &amp; Mawson, 1945)[11]
-Capillostrongyloides minima et C. zederi, reconnues par Moravec (1982)[12], sont synonymes de C. sentinosa selon Moravec (2001)[9].
-Au 23 mars 2024, World Register of Marine Species reconnaît trois espèces supplémentaires, en plus de celles citées précédemment[13] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le genre est décrit en 1935 par les parasitologistes João Ferreira Teixeira de Freitas et Herman Lent.
+Dans sa monographie de 2001 sur les nématodes de la super-famille des Trichinelloidea parasitant les animaux à sang froid, le parasitologiste tchèque František Moravec reconnaît les espèces suivantes :
+Capillostrongyloides ancistri Moravec, Gelnar &amp; Řehulska, 1987
+Capillostrongyloides fritschi (Travassos, 1914)
+Capillostrongyloides norvegica Moravec &amp; Karlsbakk, 2000
+Capillostrongyloides physiculi (Johnston &amp; Mawson, 1945)
+Capillostrongyloides sentinosa (Travassos, 1927)
+Capillostrongyloides tandani (Johnston &amp; Mawson, 1940)
+Capillostrongyloides tasmanica (Johnston &amp; Mawson, 1945)
+Capillostrongyloides minima et C. zederi, reconnues par Moravec (1982), sont synonymes de C. sentinosa selon Moravec (2001).
+Au 23 mars 2024, World Register of Marine Species reconnaît trois espèces supplémentaires, en plus de celles citées précédemment :
 Capillostrongyloides arapaimae Santos, Moravec &amp; Venturieri, 2022
 Capillostrongyloides congiopodi Cantatore, Rossin, Lanfranchi &amp; Timi, 2009
 Capillostrongyloides morae Gonzalez Solis, Carrasson &amp; Perez del Olmo, 2014</t>
